--- a/fiz.xlsx
+++ b/fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkurguzi\Remote-Banking-Brokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA430C5-4EE2-4237-AA88-C9427D896555}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43AA4A2-D8A8-4346-8B7A-545F6E869F9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Наличие бонусных программ</t>
   </si>
   <si>
-    <t>Сбербанк России</t>
-  </si>
-  <si>
     <t>ВТБ</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Открытие брокерского счета</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
   </si>
 </sst>
 </file>
@@ -581,15 +581,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>53</v>
       </c>
       <c r="BD1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE1" t="s">
         <v>54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1</v>

--- a/fiz.xlsx
+++ b/fiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkurguzi\Remote-Banking-Brokers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkurguzi\tmp\Remote-Banking-Brokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA99A59-7542-4443-9A09-6DCFDABF2ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A74151-C9A3-4959-94AC-A4787EDEBF1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,51 +207,15 @@
     <t>Газпромбанк</t>
   </si>
   <si>
-    <t>Банк «ФК Открытие»</t>
-  </si>
-  <si>
-    <t>Тинькофф Банк</t>
-  </si>
-  <si>
-    <t>Райффайзенбанк</t>
-  </si>
-  <si>
-    <t>Россельхозбанк</t>
-  </si>
-  <si>
-    <t>СМП Банк</t>
-  </si>
-  <si>
-    <t>ЮниКредит Банк</t>
-  </si>
-  <si>
-    <t>Совкомбанк</t>
-  </si>
-  <si>
-    <t>Почта Банк</t>
-  </si>
-  <si>
     <t>Росбанк</t>
   </si>
   <si>
-    <t>Московский Кредитный Банк</t>
-  </si>
-  <si>
     <t>Ситибанк</t>
   </si>
   <si>
-    <t>МТС Банк</t>
-  </si>
-  <si>
-    <t>Хоум Кредит Банк</t>
-  </si>
-  <si>
     <t>Русский Стандарт</t>
   </si>
   <si>
-    <t>Восточный Банк</t>
-  </si>
-  <si>
     <t>названия</t>
   </si>
   <si>
@@ -262,13 +226,49 @@
   </si>
   <si>
     <t>Уралсиб</t>
+  </si>
+  <si>
+    <t>Открытие</t>
+  </si>
+  <si>
+    <t>Тинькофф</t>
+  </si>
+  <si>
+    <t>Райфайзен</t>
+  </si>
+  <si>
+    <t>Россельхоз</t>
+  </si>
+  <si>
+    <t>СМП</t>
+  </si>
+  <si>
+    <t>ЮниКредит</t>
+  </si>
+  <si>
+    <t>СовкомБанк</t>
+  </si>
+  <si>
+    <t>ПочтаБанк</t>
+  </si>
+  <si>
+    <t>Мск кредитный</t>
+  </si>
+  <si>
+    <t>МТС</t>
+  </si>
+  <si>
+    <t>ХоумКредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восточный </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +276,333 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,15 +610,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{0437521B-3ED4-4457-AC8E-4F2DC4629383}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{B21A35D3-5F7A-43F8-9122-0B6E139301E1}"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,14 +1092,14 @@
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -754,7 +1264,7 @@
         <v>53</v>
       </c>
       <c r="BD1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="BE1" t="s">
         <v>54</v>
@@ -767,8 +1277,8 @@
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>77</v>
+      <c r="A2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -925,7 +1435,7 @@
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B3">
@@ -1080,7 +1590,7 @@
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B4">
@@ -1235,7 +1745,7 @@
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B5">
@@ -1390,8 +1900,8 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>60</v>
+      <c r="A6" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1545,8 +2055,8 @@
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>61</v>
+      <c r="A7" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1700,8 +2210,8 @@
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>62</v>
+      <c r="A8" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1855,8 +2365,8 @@
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>63</v>
+      <c r="A9" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2010,8 +2520,8 @@
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>64</v>
+      <c r="A10" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2165,8 +2675,8 @@
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>65</v>
+      <c r="A11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2320,8 +2830,8 @@
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>66</v>
+      <c r="A12" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2475,8 +2985,8 @@
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>67</v>
+      <c r="A13" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2630,8 +3140,8 @@
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
+      <c r="A14" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2785,8 +3295,8 @@
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>69</v>
+      <c r="A15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2940,8 +3450,8 @@
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>70</v>
+      <c r="A16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3095,8 +3605,8 @@
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>71</v>
+      <c r="A17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3250,8 +3760,8 @@
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>78</v>
+      <c r="A18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3405,8 +3915,8 @@
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>72</v>
+      <c r="A19" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3560,8 +4070,8 @@
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>73</v>
+      <c r="A20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3715,8 +4225,8 @@
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>74</v>
+      <c r="A21" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B21">
         <v>1</v>
